--- a/excels/GA/piecesGA_color_space.xlsx
+++ b/excels/GA/piecesGA_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -458,388 +458,388 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D4-0001</t>
+          <t>0D1-0001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D5-0001</t>
+          <t>0D1-0002</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D4-0003</t>
+          <t>0D1-0003</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>203</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D5-0003</t>
+          <t>0D1-0004</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>220</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D5-0002</t>
+          <t>0D1-0005</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>212</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D4-0006</t>
+          <t>0D3-0001</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="D7" t="n">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D5-0005</t>
+          <t>0D3-0002</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D8" t="n">
-        <v>221</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D4-0005</t>
+          <t>0D3-0003</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="D9" t="n">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D4-0004</t>
+          <t>0D3-0004</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="D10" t="n">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D5-0004</t>
+          <t>0D3-0005</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="D11" t="n">
-        <v>224</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D6-0024</t>
+          <t>0D4-0001</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D12" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D6-0025</t>
+          <t>0D4-0003</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D13" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D3-0005</t>
+          <t>0D4-0004</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="D14" t="n">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D6-0027</t>
+          <t>0D4-0005</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D15" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D6-0026</t>
+          <t>0D4-0006</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D16" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D3-0004</t>
+          <t>0D5-0001</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D17" t="n">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D3-0001</t>
+          <t>0D5-0002</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D18" t="n">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D3-0003</t>
+          <t>0D5-0003</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="D19" t="n">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D3-0002</t>
+          <t>0D5-0004</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="D20" t="n">
-        <v>167</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D1-0003</t>
+          <t>0D5-0005</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D1-0002</t>
+          <t>0D6-0024</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="D22" t="n">
-        <v>97</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D1-0001</t>
+          <t>0D6-0025</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="D23" t="n">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D1-0005</t>
+          <t>0D6-0026</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D1-0004</t>
+          <t>0D6-0027</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>